--- a/iolist-테이블명세.xlsx
+++ b/iolist-테이블명세.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS5050002\Documents\workspace\java\Java_900_Iolist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB427F96-4164-4BAF-9A7D-32972B3FCD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEF982B-F732-4F8A-8D7E-10EA96F1C3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,10 +344,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ioprice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ioTotal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -369,6 +365,10 @@
   </si>
   <si>
     <t>할인가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ioPrice</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -896,12 +896,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -911,13 +905,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -925,6 +919,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1271,7 +1271,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E6" sqref="E6:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1929,18 +1929,18 @@
       <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="32" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -1952,34 +1952,34 @@
       <c r="C3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="33" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="33"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -2447,12 +2447,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2466,7 +2466,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E6" sqref="E6:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3124,18 +3124,18 @@
       <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="32" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -3147,34 +3147,34 @@
       <c r="C3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="33" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="33"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3653,7 +3653,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4311,18 +4311,18 @@
       <c r="C2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="32" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="18" t="s">
         <v>11</v>
       </c>
@@ -4334,34 +4334,34 @@
       <c r="C3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="33" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="33"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4422,7 +4422,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4449,7 +4449,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4476,7 +4476,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -4565,7 +4565,7 @@
         <v>34</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>43</v>
@@ -4578,7 +4578,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4592,7 +4592,7 @@
         <v>34</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>43</v>
@@ -4603,7 +4603,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4871,12 +4871,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
